--- a/usq.xlsx
+++ b/usq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23440" windowHeight="10180"/>
+    <workbookView windowWidth="26560" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>study area</t>
+    <t>faculty</t>
   </si>
   <si>
     <t>agriculture and environment</t>
@@ -28,7 +28,7 @@
     <t>degree</t>
   </si>
   <si>
-    <t>faculty</t>
+    <t>course name</t>
   </si>
   <si>
     <t>entry requirements</t>
@@ -46,7 +46,7 @@
     <t>overview</t>
   </si>
   <si>
-    <t>career outcomes</t>
+    <t>careers</t>
   </si>
   <si>
     <t>degree structure</t>
@@ -4534,12 +4534,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4564,9 +4564,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4585,6 +4585,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -4593,8 +4600,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4610,29 +4655,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4642,6 +4665,22 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4659,52 +4698,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -4715,7 +4708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4727,7 +4732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4739,7 +4756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4751,13 +4780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4769,7 +4804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4781,19 +4828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4811,31 +4846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4847,7 +4864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4859,43 +4888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4939,45 +4932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5007,8 +4961,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5016,153 +4970,192 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5525,7 +5518,7 @@
   <dimension ref="A1:N758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/usq.xlsx
+++ b/usq.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9897" uniqueCount="1504">
   <si>
-    <t>url</t>
+    <t>href</t>
   </si>
   <si>
     <t>faculty</t>
@@ -28,34 +28,34 @@
     <t>degree</t>
   </si>
   <si>
-    <t>course name</t>
+    <t>course_name</t>
   </si>
   <si>
     <t>entry requirements</t>
   </si>
   <si>
-    <t>study mode</t>
-  </si>
-  <si>
-    <t>campus</t>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
   <si>
     <t>duration</t>
   </si>
   <si>
-    <t>overview</t>
+    <t>desc</t>
   </si>
   <si>
     <t>careers</t>
   </si>
   <si>
-    <t>degree structure</t>
-  </si>
-  <si>
-    <t>domestic fee</t>
-  </si>
-  <si>
-    <t>international fee</t>
+    <t>degree_structure</t>
+  </si>
+  <si>
+    <t>domestic_full</t>
+  </si>
+  <si>
+    <t>international_full</t>
   </si>
   <si>
     <t>https://www.unisq.edu.au/study/degrees/bachelor-of-science-honours/environment-sustainability</t>
@@ -4534,12 +4534,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4563,17 +4563,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4586,7 +4580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4600,30 +4594,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4639,14 +4626,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4661,18 +4663,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4690,14 +4706,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -4708,7 +4716,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4726,19 +4848,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4750,145 +4890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4949,26 +4957,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -4993,9 +4981,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5014,145 +5004,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5163,12 +5171,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5518,7 +5529,7 @@
   <dimension ref="A1:N758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5563,7 +5574,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
